--- a/case/ReturnOrder.xlsx
+++ b/case/ReturnOrder.xlsx
@@ -16,42 +16,82 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
-  <si>
-    <t>module</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>UserCase</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
-    <t>params</t>
-  </si>
-  <si>
-    <t>退换货单</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>用例id</t>
+  </si>
+  <si>
+    <t>用例名</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>请求参数</t>
+  </si>
+  <si>
+    <t>期望值</t>
+  </si>
+  <si>
+    <t>响应码</t>
+  </si>
+  <si>
+    <t>实际结果</t>
+  </si>
+  <si>
+    <t>是否通过</t>
   </si>
   <si>
     <t>ReturnOrder001</t>
   </si>
   <si>
-    <t>未审核</t>
+    <t>退换货单按平台单号查询</t>
+  </si>
+  <si>
+    <t>http://v2.api.guanyierp.com/rest/erp_open</t>
   </si>
   <si>
     <t>post</t>
   </si>
   <si>
-    <t>{"method": "gy.erp.trade.return.status.update","sessionkey": "94ee1ca3c41d44989290d02985105865", "appkey": "116761","code":"RGO12504806369","audit_status": "2",}</t>
+    <t>{
+    "appkey": "116289",
+    "sessionkey": "8054e48f255a4c388d01fa08cc7f8d54",
+    "method": "gy.erp.trade.return.get",
+    "platform_code": "20201126003",
+}</t>
   </si>
   <si>
     <t>ReturnOrder002</t>
   </si>
   <si>
+    <t>退换货单按退换货单号查询</t>
+  </si>
+  <si>
+    <t>{
+            "method": "gy.erp.trade.return.get",
+            "sessionkey": "8054e48f255a4c388d01fa08cc7f8d54",
+            "appkey": "116289",
+            "code": "RGO284372880571",
+        }</t>
+  </si>
+  <si>
     <t>ReturnOrder003</t>
+  </si>
+  <si>
+    <t>审核</t>
+  </si>
+  <si>
+    <t>{
+            "method": "gy.erp.trade.return.status.update",
+            "sessionkey": "8054e48f255a4c388d01fa08cc7f8d54",
+            "appkey": "116289",
+            "code": "RGO284372880571",
+            "audit_status": "2",
+        }</t>
   </si>
 </sst>
 </file>
@@ -59,10 +99,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -73,8 +113,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -87,23 +135,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -118,53 +152,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,23 +198,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +218,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -226,6 +266,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -238,175 +404,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,65 +457,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -497,8 +478,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -517,6 +513,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -525,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -537,19 +577,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,117 +598,120 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1022,20 +1065,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="17.875" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="3" max="3" width="51.25" customWidth="1"/>
     <col min="5" max="5" width="52.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1050,60 +1094,82 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" ht="120" customHeight="1" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" ht="67.5" spans="1:5">
+    <row r="3" ht="120" customHeight="1" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="4" ht="67.5" spans="1:5">
+    <row r="4" ht="135" spans="1:5">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
       <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" s="1"/>
+      <c r="D5"/>
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://v2.api.guanyierp.com/rest/erp_open" tooltip="http://v2.api.guanyierp.com/rest/erp_open"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://v2.api.guanyierp.com/rest/erp_open"/>
+    <hyperlink ref="C3" r:id="rId1" display="http://v2.api.guanyierp.com/rest/erp_open"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/case/ReturnOrder.xlsx
+++ b/case/ReturnOrder.xlsx
@@ -18,31 +18,31 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
-    <t>用例id</t>
-  </si>
-  <si>
-    <t>用例名</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>case_name</t>
   </si>
   <si>
     <t>url</t>
   </si>
   <si>
-    <t>请求方式</t>
-  </si>
-  <si>
-    <t>请求参数</t>
-  </si>
-  <si>
-    <t>期望值</t>
-  </si>
-  <si>
-    <t>响应码</t>
-  </si>
-  <si>
-    <t>实际结果</t>
-  </si>
-  <si>
-    <t>是否通过</t>
+    <t>method</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>passed</t>
   </si>
   <si>
     <t>ReturnOrder001</t>
@@ -101,8 +101,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,22 +122,76 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,6 +205,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -159,30 +236,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,67 +256,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -266,43 +266,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -314,67 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,66 +447,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,21 +457,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -500,6 +485,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -510,6 +510,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,32 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,16 +577,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,115 +595,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1067,8 +1067,8 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -1076,7 +1076,9 @@
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="51.25" customWidth="1"/>
+    <col min="4" max="4" width="32.375" customWidth="1"/>
     <col min="5" max="5" width="52.875" customWidth="1"/>
+    <col min="6" max="6" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1161,7 +1163,6 @@
     </row>
     <row r="5" spans="3:5">
       <c r="C5" s="1"/>
-      <c r="D5"/>
       <c r="E5" s="2"/>
     </row>
   </sheetData>

--- a/case/ReturnOrder.xlsx
+++ b/case/ReturnOrder.xlsx
@@ -99,8 +99,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -122,13 +122,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -144,54 +137,61 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,21 +205,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -227,23 +212,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,6 +226,36 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -266,25 +266,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -296,55 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,97 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,6 +470,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -484,6 +499,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -494,36 +533,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -548,15 +557,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,16 +577,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,115 +595,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,13 +1065,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="A3" sqref="$A3:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
@@ -1127,7 +1127,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="120" customHeight="1" spans="1:5">
+    <row r="3" customFormat="1" ht="108" spans="1:5">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" ht="135" spans="1:5">
+    <row r="4" customFormat="1" ht="135" spans="1:5">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1160,10 +1160,6 @@
       <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5" s="1"/>
-      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/case/ReturnOrder.xlsx
+++ b/case/ReturnOrder.xlsx
@@ -33,7 +33,7 @@
     <t>params</t>
   </si>
   <si>
-    <t>expect</t>
+    <t>success</t>
   </si>
   <si>
     <t>response</t>
@@ -42,10 +42,7 @@
     <t>result</t>
   </si>
   <si>
-    <t>passed</t>
-  </si>
-  <si>
-    <t>ReturnOrder001</t>
+    <t>ReturnOrder_001</t>
   </si>
   <si>
     <t>退换货单按平台单号查询</t>
@@ -65,7 +62,7 @@
 }</t>
   </si>
   <si>
-    <t>ReturnOrder002</t>
+    <t>ReturnOrder_002</t>
   </si>
   <si>
     <t>退换货单按退换货单号查询</t>
@@ -79,7 +76,7 @@
         }</t>
   </si>
   <si>
-    <t>ReturnOrder003</t>
+    <t>ReturnOrder_003</t>
   </si>
   <si>
     <t>审核</t>
@@ -93,14 +90,17 @@
             "audit_status": "2",
         }</t>
   </si>
+  <si>
+    <t>Flase</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -121,10 +121,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,67 +145,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -206,14 +154,43 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,30 +205,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,187 +266,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,11 +460,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -484,56 +490,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -557,6 +518,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,16 +577,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,121 +595,124 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
@@ -1065,13 +1068,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="25.75" customWidth="1"/>
@@ -1081,7 +1084,7 @@
     <col min="6" max="6" width="38.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1091,13 +1094,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1106,58 +1109,64 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+    </row>
+    <row r="2" ht="120" customHeight="1" spans="1:6">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" ht="120" customHeight="1" spans="1:5">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" customFormat="1" ht="108" spans="1:6">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>13</v>
+      <c r="E3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="1" ht="108" spans="1:5">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="4" customFormat="1" ht="135" spans="1:6">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" ht="135" spans="1:5">
-      <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
     </row>
